--- a/biology/Zoologie/Conus_keatii/Conus_keatii.xlsx
+++ b/biology/Zoologie/Conus_keatii/Conus_keatii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus keatii est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus keatii a été décrite pour la première fois en 1858 par le naturaliste, illustrateur et conchyliologiste britannique George Brettingham Sowerby II (1812-1884),[1].
-Synonymes
-Conus (Phasmoconus) cavailloni Fenaux, 1942 · non accepté
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus keatii a été décrite pour la première fois en 1858 par le naturaliste, illustrateur et conchyliologiste britannique George Brettingham Sowerby II (1812-1884),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conus_keatii</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_keatii</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Conus (Phasmoconus) cavailloni Fenaux, 1942 · non accepté
 Conus (Phasmoconus) keatii G. B. Sowerby II, 1858 · appellation alternative
 Conus cavailloni Fenaux, 1942 · non accepté
 Phasmoconus (Graphiconus) keatii (G. B. Sowerby II, 1858) · non accepté
